--- a/Data/Stocks.xlsx
+++ b/Data/Stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredrik Hausken\OneDrive\Skole\NTNU\Master\MasterThesisRepository\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="6DA39FEB23D48C31280FDB585F85096D805DBD6A" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{5ABC22A8-712E-4870-B6F5-8BA38035F2A6}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="6DA39FEB23D48C31280FDB585F85096D805DBD6A" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{F1FB8C8C-8863-4868-B02D-785E6B44391B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="9623" xr2:uid="{110DA888-1249-474E-921F-19FA068D37A4}"/>
   </bookViews>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909A5B1F-B6FE-42FB-A7AF-2CDF708C07E3}">
   <dimension ref="A1:B195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Data/Stocks.xlsx
+++ b/Data/Stocks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredrik Hausken\OneDrive\Skole\NTNU\Master\MasterThesisRepository\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="6DA39FEB23D48C31280FDB585F85096D805DBD6A" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{F1FB8C8C-8863-4868-B02D-785E6B44391B}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="6DA39FEB23D48C31280FDB585F85096D805DBD6A" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{31B362CC-2877-4B87-B36F-33B05E6DDE7D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="9623" xr2:uid="{110DA888-1249-474E-921F-19FA068D37A4}"/>
   </bookViews>

--- a/Data/Stocks.xlsx
+++ b/Data/Stocks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredrik Hausken\OneDrive\Skole\NTNU\Master\MasterThesisRepository\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="6DA39FEB23D48C31280FDB585F85096D805DBD6A" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{31B362CC-2877-4B87-B36F-33B05E6DDE7D}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="6DA39FEB23D48C31280FDB585F85096D805DBD6A" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{10EF91D1-5137-4FDB-AD30-09E75239E3E1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="9623" xr2:uid="{110DA888-1249-474E-921F-19FA068D37A4}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>GSF</t>
   </si>
   <si>
-    <t>Lerøy Seafood Group</t>
-  </si>
-  <si>
     <t>LSG</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>Leroy Seafood Group</t>
   </si>
 </sst>
 </file>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909A5B1F-B6FE-42FB-A7AF-2CDF708C07E3}">
   <dimension ref="A1:B195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -567,7 +567,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -647,130 +647,130 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">

--- a/Data/Stocks.xlsx
+++ b/Data/Stocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredrik Hausken\OneDrive\Skole\NTNU\Master\MasterThesisRepository\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andersronold/MasterThesis/MasterThesisRepository/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="6DA39FEB23D48C31280FDB585F85096D805DBD6A" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{10EF91D1-5137-4FDB-AD30-09E75239E3E1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F53720-0482-EF49-BD36-657B5B026969}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="9623" xr2:uid="{110DA888-1249-474E-921F-19FA068D37A4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{110DA888-1249-474E-921F-19FA068D37A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,66 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Ticker</t>
   </si>
   <si>
-    <t>Aker BP</t>
-  </si>
-  <si>
-    <t>AKERBP</t>
-  </si>
-  <si>
-    <t>Aker Solutions</t>
-  </si>
-  <si>
-    <t>AKSO</t>
-  </si>
-  <si>
-    <t>BW LPG</t>
-  </si>
-  <si>
-    <t>BWLPG</t>
-  </si>
-  <si>
-    <t>Bakkafrost</t>
-  </si>
-  <si>
-    <t>BAKKA</t>
-  </si>
-  <si>
     <t>DNB</t>
-  </si>
-  <si>
-    <t>DNO</t>
-  </si>
-  <si>
-    <t>Gjensidige Forsikring</t>
-  </si>
-  <si>
-    <t>GJF</t>
-  </si>
-  <si>
-    <t>Golden Ocean Group</t>
-  </si>
-  <si>
-    <t>GOGL</t>
-  </si>
-  <si>
-    <t>Grieg Seafood</t>
-  </si>
-  <si>
-    <t>GSF</t>
-  </si>
-  <si>
-    <t>LSG</t>
-  </si>
-  <si>
-    <t>Marine Harvest</t>
-  </si>
-  <si>
-    <t>MHG</t>
   </si>
   <si>
     <t>Norsk Hydro</t>
@@ -101,70 +47,10 @@
     <t>NHY</t>
   </si>
   <si>
-    <t>Norwegian Air Shuttle</t>
-  </si>
-  <si>
-    <t>NAS</t>
-  </si>
-  <si>
-    <t>Norwegian Finans Holding</t>
-  </si>
-  <si>
-    <t>NOFI</t>
-  </si>
-  <si>
-    <t>Orkla</t>
-  </si>
-  <si>
-    <t>ORK</t>
-  </si>
-  <si>
-    <t>Petroleum Geo-Services</t>
-  </si>
-  <si>
-    <t>PGS</t>
-  </si>
-  <si>
-    <t>Questerre Energy Corporation</t>
-  </si>
-  <si>
-    <t>QEC</t>
-  </si>
-  <si>
-    <t>SalMar</t>
-  </si>
-  <si>
-    <t>SALM</t>
-  </si>
-  <si>
-    <t>Schibsted ser. A</t>
-  </si>
-  <si>
-    <t>SCHA</t>
-  </si>
-  <si>
     <t>Statoil</t>
   </si>
   <si>
     <t>STL</t>
-  </si>
-  <si>
-    <t>Storebrand</t>
-  </si>
-  <si>
-    <t>STB</t>
-  </si>
-  <si>
-    <t>Subsea 7</t>
-  </si>
-  <si>
-    <t>SUBC</t>
-  </si>
-  <si>
-    <t>TGS-NOPEC Geophysical Company</t>
-  </si>
-  <si>
-    <t>TGS</t>
   </si>
   <si>
     <t>Telenor</t>
@@ -180,9 +66,6 @@
   </si>
   <si>
     <t>Stock</t>
-  </si>
-  <si>
-    <t>Leroy Seafood Group</t>
   </si>
 </sst>
 </file>
@@ -556,896 +439,816 @@
   <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E26"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
     </row>
